--- a/public/precios_template.xlsx
+++ b/public/precios_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971A7233-8DFD-4070-928C-60BDAE713A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C32A75B-CAFC-4D54-8D63-DBD58D639A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -332,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -365,20 +365,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -940,15 +934,15 @@
   <dimension ref="A2:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9:G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30" style="16" customWidth="1"/>
+    <col min="1" max="1" width="30" style="10" customWidth="1"/>
     <col min="2" max="2" width="16.08984375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.453125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.81640625" style="10" bestFit="1" customWidth="1"/>
@@ -971,7 +965,7 @@
       <c r="A3" s="13"/>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1012,7 +1006,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="3">
@@ -1064,7 +1058,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3">
@@ -1116,7 +1110,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3">
@@ -1168,7 +1162,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3">
@@ -1220,7 +1214,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="3">
@@ -1242,7 +1236,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A9), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G9" s="7" t="str" cm="1">
+      <c r="G9" s="8" t="str" cm="1">
         <f t="array" ref="G9">IFERROR(ROUND(MODE(IF(Avisos!B:B=A9, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1272,7 +1266,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="3">
@@ -1294,7 +1288,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A10), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G10" s="7" t="str" cm="1">
+      <c r="G10" s="8" t="str" cm="1">
         <f t="array" ref="G10">IFERROR(ROUND(MODE(IF(Avisos!B:B=A10, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1324,7 +1318,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="3">
@@ -1346,7 +1340,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A11), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G11" s="7" t="str" cm="1">
+      <c r="G11" s="8" t="str" cm="1">
         <f t="array" ref="G11">IFERROR(ROUND(MODE(IF(Avisos!B:B=A11, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1376,7 +1370,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="3">
@@ -1398,7 +1392,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A12), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G12" s="7" t="str" cm="1">
+      <c r="G12" s="8" t="str" cm="1">
         <f t="array" ref="G12">IFERROR(ROUND(MODE(IF(Avisos!B:B=A12, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1428,7 +1422,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="3">
@@ -1450,7 +1444,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A13), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G13" s="7" t="str" cm="1">
+      <c r="G13" s="8" t="str" cm="1">
         <f t="array" ref="G13">IFERROR(ROUND(MODE(IF(Avisos!B:B=A13, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1480,7 +1474,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="3">
@@ -1502,7 +1496,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A14), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G14" s="7" t="str" cm="1">
+      <c r="G14" s="8" t="str" cm="1">
         <f t="array" ref="G14">IFERROR(ROUND(MODE(IF(Avisos!B:B=A14, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1532,7 +1526,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="3">
@@ -1554,7 +1548,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A15), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G15" s="7" t="str" cm="1">
+      <c r="G15" s="8" t="str" cm="1">
         <f t="array" ref="G15">IFERROR(ROUND(MODE(IF(Avisos!B:B=A15, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1584,7 +1578,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="3">
@@ -1606,7 +1600,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A16), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G16" s="7" t="str" cm="1">
+      <c r="G16" s="8" t="str" cm="1">
         <f t="array" ref="G16">IFERROR(ROUND(MODE(IF(Avisos!B:B=A16, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1636,7 +1630,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3">
@@ -1658,7 +1652,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A17), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G17" s="7" t="str" cm="1">
+      <c r="G17" s="8" t="str" cm="1">
         <f t="array" ref="G17">IFERROR(ROUND(MODE(IF(Avisos!B:B=A17, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1688,7 +1682,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="3">
@@ -1710,7 +1704,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A18), 0), "Sin Info")</f>
         <v>2500000</v>
       </c>
-      <c r="G18" s="7" t="str" cm="1">
+      <c r="G18" s="8" t="str" cm="1">
         <f t="array" ref="G18">IFERROR(ROUND(MODE(IF(Avisos!B:B=A18, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1740,7 +1734,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="3">
@@ -1762,7 +1756,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A19), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G19" s="7" t="str" cm="1">
+      <c r="G19" s="8" t="str" cm="1">
         <f t="array" ref="G19">IFERROR(ROUND(MODE(IF(Avisos!B:B=A19, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1792,7 +1786,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="3">
@@ -1814,7 +1808,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A20), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G20" s="7" t="str" cm="1">
+      <c r="G20" s="8" t="str" cm="1">
         <f t="array" ref="G20">IFERROR(ROUND(MODE(IF(Avisos!B:B=A20, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1844,7 +1838,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="3">
@@ -1866,7 +1860,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A21), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G21" s="7" t="str" cm="1">
+      <c r="G21" s="8" t="str" cm="1">
         <f t="array" ref="G21">IFERROR(ROUND(MODE(IF(Avisos!B:B=A21, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1896,7 +1890,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="3">
@@ -1918,7 +1912,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A22), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G22" s="7" t="str" cm="1">
+      <c r="G22" s="8" t="str" cm="1">
         <f t="array" ref="G22">IFERROR(ROUND(MODE(IF(Avisos!B:B=A22, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1948,7 +1942,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="3">
@@ -1970,7 +1964,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A23), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G23" s="7" t="str" cm="1">
+      <c r="G23" s="8" t="str" cm="1">
         <f t="array" ref="G23">IFERROR(ROUND(MODE(IF(Avisos!B:B=A23, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2000,7 +1994,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="3">
@@ -2022,7 +2016,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A24), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G24" s="7" t="str" cm="1">
+      <c r="G24" s="8" t="str" cm="1">
         <f t="array" ref="G24">IFERROR(ROUND(MODE(IF(Avisos!B:B=A24, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2052,7 +2046,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="3">
@@ -2074,7 +2068,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A25), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G25" s="7" t="str" cm="1">
+      <c r="G25" s="8" t="str" cm="1">
         <f t="array" ref="G25">IFERROR(ROUND(MODE(IF(Avisos!B:B=A25, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2104,7 +2098,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="3">
@@ -2126,7 +2120,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A26), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G26" s="7" t="str" cm="1">
+      <c r="G26" s="8" t="str" cm="1">
         <f t="array" ref="G26">IFERROR(ROUND(MODE(IF(Avisos!B:B=A26, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2156,7 +2150,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="3">
@@ -2178,7 +2172,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A27), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G27" s="7" t="str" cm="1">
+      <c r="G27" s="8" t="str" cm="1">
         <f t="array" ref="G27">IFERROR(ROUND(MODE(IF(Avisos!B:B=A27, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2208,7 +2202,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="3">
@@ -2230,7 +2224,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A28), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G28" s="7" t="str" cm="1">
+      <c r="G28" s="8" t="str" cm="1">
         <f t="array" ref="G28">IFERROR(ROUND(MODE(IF(Avisos!B:B=A28, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2260,7 +2254,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="3">
@@ -2282,7 +2276,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A29), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G29" s="7" t="str" cm="1">
+      <c r="G29" s="8" t="str" cm="1">
         <f t="array" ref="G29">IFERROR(ROUND(MODE(IF(Avisos!B:B=A29, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2312,7 +2306,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="3">
@@ -2334,7 +2328,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A30), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G30" s="7" t="str" cm="1">
+      <c r="G30" s="8" t="str" cm="1">
         <f t="array" ref="G30">IFERROR(ROUND(MODE(IF(Avisos!B:B=A30, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2364,7 +2358,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="3">
@@ -2386,7 +2380,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A31), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G31" s="7" t="str" cm="1">
+      <c r="G31" s="8" t="str" cm="1">
         <f t="array" ref="G31">IFERROR(ROUND(MODE(IF(Avisos!B:B=A31, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2416,7 +2410,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="3">
@@ -2438,7 +2432,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A32), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G32" s="7" t="str" cm="1">
+      <c r="G32" s="8" t="str" cm="1">
         <f t="array" ref="G32">IFERROR(ROUND(MODE(IF(Avisos!B:B=A32, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2468,7 +2462,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="3">
@@ -2490,7 +2484,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A33), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G33" s="7" t="str" cm="1">
+      <c r="G33" s="8" t="str" cm="1">
         <f t="array" ref="G33">IFERROR(ROUND(MODE(IF(Avisos!B:B=A33, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2520,7 +2514,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="3">
@@ -2542,7 +2536,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A34), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G34" s="7" t="str" cm="1">
+      <c r="G34" s="8" t="str" cm="1">
         <f t="array" ref="G34">IFERROR(ROUND(MODE(IF(Avisos!B:B=A34, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2572,7 +2566,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="3">
@@ -2594,7 +2588,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A35), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G35" s="7" t="str" cm="1">
+      <c r="G35" s="8" t="str" cm="1">
         <f t="array" ref="G35">IFERROR(ROUND(MODE(IF(Avisos!B:B=A35, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2624,7 +2618,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="3">
@@ -2646,7 +2640,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A36), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G36" s="7" t="str" cm="1">
+      <c r="G36" s="8" t="str" cm="1">
         <f t="array" ref="G36">IFERROR(ROUND(MODE(IF(Avisos!B:B=A36, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2676,7 +2670,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="3">
@@ -2698,7 +2692,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A37), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G37" s="7" t="str" cm="1">
+      <c r="G37" s="8" t="str" cm="1">
         <f t="array" ref="G37">IFERROR(ROUND(MODE(IF(Avisos!B:B=A37, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2728,7 +2722,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="3">
@@ -2750,7 +2744,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A38), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G38" s="7" t="str" cm="1">
+      <c r="G38" s="8" t="str" cm="1">
         <f t="array" ref="G38">IFERROR(ROUND(MODE(IF(Avisos!B:B=A38, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2780,7 +2774,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="3">
@@ -2802,7 +2796,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A39), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G39" s="7" t="str" cm="1">
+      <c r="G39" s="8" t="str" cm="1">
         <f t="array" ref="G39">IFERROR(ROUND(MODE(IF(Avisos!B:B=A39, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2832,7 +2826,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="3">
@@ -2854,7 +2848,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A40), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G40" s="7" t="str" cm="1">
+      <c r="G40" s="8" t="str" cm="1">
         <f t="array" ref="G40">IFERROR(ROUND(MODE(IF(Avisos!B:B=A40, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2884,7 +2878,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="3">
@@ -2906,7 +2900,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A41), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G41" s="7" t="str" cm="1">
+      <c r="G41" s="8" t="str" cm="1">
         <f t="array" ref="G41">IFERROR(ROUND(MODE(IF(Avisos!B:B=A41, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2936,7 +2930,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="3">
@@ -2958,7 +2952,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A42), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G42" s="7" t="str" cm="1">
+      <c r="G42" s="8" t="str" cm="1">
         <f t="array" ref="G42">IFERROR(ROUND(MODE(IF(Avisos!B:B=A42, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -2988,7 +2982,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B43" s="3">
@@ -3010,7 +3004,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A43), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G43" s="7" t="str" cm="1">
+      <c r="G43" s="8" t="str" cm="1">
         <f t="array" ref="G43">IFERROR(ROUND(MODE(IF(Avisos!B:B=A43, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -3040,7 +3034,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="3">
@@ -3062,7 +3056,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A44), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="G44" s="7" t="str" cm="1">
+      <c r="G44" s="8" t="str" cm="1">
         <f t="array" ref="G44">IFERROR(ROUND(MODE(IF(Avisos!B:B=A44, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -3096,6 +3090,7 @@
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
@@ -3106,6 +3101,7 @@
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
@@ -3116,6 +3112,7 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
@@ -3126,6 +3123,7 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
@@ -3136,6 +3134,7 @@
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
@@ -3146,6 +3145,7 @@
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
@@ -3156,6 +3156,7 @@
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
@@ -3166,6 +3167,7 @@
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
@@ -3176,6 +3178,7 @@
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
@@ -3186,6 +3189,7 @@
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
@@ -3196,6 +3200,7 @@
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
@@ -3206,6 +3211,7 @@
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
@@ -3216,6 +3222,7 @@
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
@@ -3226,6 +3233,7 @@
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
@@ -3236,6 +3244,7 @@
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
@@ -3246,6 +3255,7 @@
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
@@ -3256,6 +3266,7 @@
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
@@ -3265,66 +3276,71 @@
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="G63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="G64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
     </row>
-    <row r="65" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="7:13" x14ac:dyDescent="0.35">
+      <c r="G65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
     </row>
-    <row r="66" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="7:13" x14ac:dyDescent="0.35">
+      <c r="G66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
     </row>
-    <row r="67" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="7:13" x14ac:dyDescent="0.35">
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
     </row>
-    <row r="68" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="7:13" x14ac:dyDescent="0.35">
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
     </row>
-    <row r="69" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="7:13" x14ac:dyDescent="0.35">
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
     </row>
-    <row r="70" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="7:13" x14ac:dyDescent="0.35">
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
     </row>
-    <row r="71" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="7:13" x14ac:dyDescent="0.35">
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
     </row>
-    <row r="72" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="7:13" x14ac:dyDescent="0.35">
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>

--- a/public/precios_template.xlsx
+++ b/public/precios_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CB323A-F9D7-4DDF-924B-D1A993F94E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3DC0AE-1A11-4524-A56C-52116C36EA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -858,7 +858,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,7 +957,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A5), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="H5" s="6" t="str" cm="1">
+      <c r="H5" s="7" t="str" cm="1">
         <f t="array" ref="H5">IFERROR(ROUND(MODE(IF(Avisos!B:B=A5, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1013,7 +1013,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A6), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="H6" s="6" t="str" cm="1">
+      <c r="H6" s="7" t="str" cm="1">
         <f t="array" ref="H6">IFERROR(ROUND(MODE(IF(Avisos!B:B=A6, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1069,7 +1069,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A7), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="H7" s="6" t="str" cm="1">
+      <c r="H7" s="7" t="str" cm="1">
         <f t="array" ref="H7">IFERROR(ROUND(MODE(IF(Avisos!B:B=A7, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>
@@ -1125,7 +1125,7 @@
         <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A8), 0), "Sin Info")</f>
         <v>Sin Info</v>
       </c>
-      <c r="H8" s="6" t="str" cm="1">
+      <c r="H8" s="7" t="str" cm="1">
         <f t="array" ref="H8">IFERROR(ROUND(MODE(IF(Avisos!B:B=A8, Avisos!C:C)), 0),"Sin Info")</f>
         <v>Sin Info</v>
       </c>

--- a/public/precios_template.xlsx
+++ b/public/precios_template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3DC0AE-1A11-4524-A56C-52116C36EA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374EC968-3FEA-4CB1-A68B-4234C6793F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Titulo</t>
   </si>
@@ -237,6 +237,54 @@
   </si>
   <si>
     <t>Cuartil</t>
+  </si>
+  <si>
+    <t>BLITZ 110 BLACK EDITION</t>
+  </si>
+  <si>
+    <t>ORBIT II 125</t>
+  </si>
+  <si>
+    <t>V302C</t>
+  </si>
+  <si>
+    <t>TRK 702</t>
+  </si>
+  <si>
+    <t>TRK 702 X</t>
+  </si>
+  <si>
+    <t>LEONCINO 800 TRAIL</t>
+  </si>
+  <si>
+    <t>GIXXER GSX 150</t>
+  </si>
+  <si>
+    <t>NEO XR 110</t>
+  </si>
+  <si>
+    <t>NTORQ 125</t>
+  </si>
+  <si>
+    <t>RAIDER 125</t>
+  </si>
+  <si>
+    <t>RTR 160</t>
+  </si>
+  <si>
+    <t>RTR 200</t>
+  </si>
+  <si>
+    <t>RTR 200 EFI 4V</t>
+  </si>
+  <si>
+    <t>TARPAN 200 RUN ER</t>
+  </si>
+  <si>
+    <t>TK-REVOLT</t>
+  </si>
+  <si>
+    <t>TK-RERACE</t>
   </si>
 </sst>
 </file>
@@ -320,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -358,6 +406,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,7 +856,7 @@
   <dimension ref="A1:G605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U1354"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,12 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5:H20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -932,14 +981,14 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B5" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A5),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>3000000</v>
+        <v>2655289</v>
       </c>
       <c r="D5" s="6" t="str">
         <f>IF(C5&lt;=K5,"Q1",IF(AND(C5&gt;K5,C5&lt;=L5),"Q2",IF(AND(C5&gt;L5,C5&lt;=M5),"Q3","Q4")))</f>
@@ -988,14 +1037,14 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A6),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>2229629</v>
+        <v>3149068</v>
       </c>
       <c r="D6" s="6" t="str">
         <f t="shared" ref="D6:D44" si="0">IF(C6&lt;=K6,"Q1",IF(AND(C6&gt;K6,C6&lt;=L6),"Q2",IF(AND(C6&gt;L6,C6&lt;=M6),"Q3","Q4")))</f>
@@ -1044,14 +1093,14 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A7),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>3000000</v>
+        <v>2923965</v>
       </c>
       <c r="D7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1100,14 +1149,14 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A8),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>1800000</v>
+        <v>2233813</v>
       </c>
       <c r="D8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1156,14 +1205,14 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A9),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>1950697</v>
+        <v>2083104</v>
       </c>
       <c r="D9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1212,14 +1261,14 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A10),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>2850000</v>
+        <v>2457175</v>
       </c>
       <c r="D10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1268,14 +1317,14 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A11),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>1975129</v>
+        <v>3483500</v>
       </c>
       <c r="D11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1324,14 +1373,14 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B12" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A12),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>2485147</v>
+        <v>1946550</v>
       </c>
       <c r="D12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1380,14 +1429,14 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A13),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>2586947</v>
+        <v>2460500</v>
       </c>
       <c r="D13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1436,14 +1485,14 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A14),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>3206909</v>
+        <v>3220900</v>
       </c>
       <c r="D14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1492,14 +1541,14 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A15),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>1822429</v>
+        <v>3412783</v>
       </c>
       <c r="D15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1546,16 +1595,16 @@
         <v>Sin Info</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A16),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>4123109</v>
+        <v>4442346</v>
       </c>
       <c r="D16" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1604,14 +1653,14 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A17),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>1240133</v>
+        <v>2365622</v>
       </c>
       <c r="D17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1658,16 +1707,16 @@
         <v>Sin Info</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A18),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>1140369</v>
+        <v>5074590</v>
       </c>
       <c r="D18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1714,16 +1763,16 @@
         <v>Sin Info</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B19" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A19),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>1211629</v>
+        <v>1649105</v>
       </c>
       <c r="D19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1772,14 +1821,14 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B20" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A20),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>1333789</v>
+        <v>1494255</v>
       </c>
       <c r="D20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1826,16 +1875,16 @@
         <v>Sin Info</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A21),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>1242169</v>
+        <v>1490697</v>
       </c>
       <c r="D21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1882,16 +1931,16 @@
         <v>Sin Info</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A22),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>1467147</v>
+        <v>1632995</v>
       </c>
       <c r="D22" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1940,14 +1989,14 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B23" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A23),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>7714387</v>
+        <v>1779582</v>
       </c>
       <c r="D23" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1994,16 +2043,16 @@
         <v>Sin Info</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A24),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>2655820</v>
+        <v>1646096</v>
       </c>
       <c r="D24" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2052,14 +2101,14 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A25),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>5393918</v>
+        <v>1918944</v>
       </c>
       <c r="D25" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2108,14 +2157,14 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B26" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A26),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>11985256</v>
+        <v>2663360</v>
       </c>
       <c r="D26" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2164,14 +2213,14 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B27" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A27),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C27" s="2">
-        <v>6611543</v>
+        <v>7689500</v>
       </c>
       <c r="D27" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2220,14 +2269,14 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B28" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A28),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>10918595</v>
+        <v>10155500</v>
       </c>
       <c r="D28" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2276,14 +2325,14 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B29" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A29),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C29" s="2">
-        <v>11669480</v>
+        <v>3157460</v>
       </c>
       <c r="D29" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2332,14 +2381,14 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B30" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A30),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C30" s="2">
-        <v>14924356</v>
+        <v>16594390</v>
       </c>
       <c r="D30" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2388,14 +2437,14 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B31" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A31),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C31" s="2">
-        <v>11346886</v>
+        <v>17637750</v>
       </c>
       <c r="D31" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2444,14 +2493,14 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B32" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A32),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>5813516</v>
+        <v>6339255</v>
       </c>
       <c r="D32" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2500,14 +2549,14 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B33" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A33),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C33" s="2">
-        <v>9680651</v>
+        <v>13754000</v>
       </c>
       <c r="D33" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2556,14 +2605,14 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B34" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A34),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C34" s="2">
-        <v>8071095</v>
+        <v>7355500</v>
       </c>
       <c r="D34" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2612,14 +2661,14 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B35" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A35),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C35" s="2">
-        <v>13996873</v>
+        <v>11699025</v>
       </c>
       <c r="D35" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2668,14 +2717,14 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B36" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A36),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C36" s="2">
-        <v>3664024</v>
+        <v>12820500</v>
       </c>
       <c r="D36" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2724,14 +2773,14 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B37" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A37),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C37" s="2">
-        <v>4312953</v>
+        <v>17780100</v>
       </c>
       <c r="D37" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2780,14 +2829,14 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B38" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A38),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>6177758</v>
+        <v>13939200</v>
       </c>
       <c r="D38" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2836,14 +2885,14 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B39" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A39),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C39" s="2">
-        <v>2292725</v>
+        <v>6415500</v>
       </c>
       <c r="D39" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2892,14 +2941,14 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B40" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A40),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C40" s="2">
-        <v>1766354</v>
+        <v>11848320</v>
       </c>
       <c r="D40" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2948,14 +2997,14 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B41" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A41),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C41" s="2">
-        <v>2623165</v>
+        <v>17178930</v>
       </c>
       <c r="D41" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3004,14 +3053,14 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B42" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A42),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C42" s="2">
-        <v>2774385</v>
+        <v>9599990</v>
       </c>
       <c r="D42" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3060,14 +3109,14 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B43" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A43),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C43" s="2">
-        <v>2474967</v>
+        <v>16773750</v>
       </c>
       <c r="D43" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3116,14 +3165,14 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B44" s="6">
         <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A44),"Sin Info")</f>
         <v>0</v>
       </c>
       <c r="C44" s="2">
-        <v>1528227</v>
+        <v>4085870</v>
       </c>
       <c r="D44" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3171,186 +3220,902 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
+      <c r="A45" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A45),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4912346</v>
+      </c>
+      <c r="D45" s="6" t="str">
+        <f t="shared" ref="D45:D60" si="1">IF(C45&lt;=K45,"Q1",IF(AND(C45&gt;K45,C45&lt;=L45),"Q2",IF(AND(C45&gt;L45,C45&lt;=M45),"Q3","Q4")))</f>
+        <v>Q1</v>
+      </c>
+      <c r="E45" s="7" cm="1">
+        <f t="array" ref="E45">IFERROR(MIN(IF(Avisos!B:B=A45, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="7" cm="1">
+        <f t="array" ref="F45">IFERROR(MAX(IF(Avisos!B:B=A45, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A45), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H45" s="7" t="str" cm="1">
+        <f t="array" ref="H45">IFERROR(ROUND(MODE(IF(Avisos!B:B=A45, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I45" s="7" t="str" cm="1">
+        <f t="array" ref="I45">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A45, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J45" s="8" t="str" cm="1">
+        <f t="array" ref="J45">IFERROR(SKEW(IF(Avisos!B:B=A45, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K45" s="7" t="str" cm="1">
+        <f t="array" ref="K45">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A45, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L45" s="7" t="str" cm="1">
+        <f t="array" ref="L45">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A45, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M45" s="7" t="str" cm="1">
+        <f t="array" ref="M45">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A45, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N45" s="7" t="str" cm="1">
+        <f t="array" ref="N45">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A45, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
+      <c r="A46" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A46),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>7084350</v>
+      </c>
+      <c r="D46" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1</v>
+      </c>
+      <c r="E46" s="7" cm="1">
+        <f t="array" ref="E46">IFERROR(MIN(IF(Avisos!B:B=A46, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="7" cm="1">
+        <f t="array" ref="F46">IFERROR(MAX(IF(Avisos!B:B=A46, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A46), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H46" s="7" t="str" cm="1">
+        <f t="array" ref="H46">IFERROR(ROUND(MODE(IF(Avisos!B:B=A46, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I46" s="7" t="str" cm="1">
+        <f t="array" ref="I46">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A46, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J46" s="8" t="str" cm="1">
+        <f t="array" ref="J46">IFERROR(SKEW(IF(Avisos!B:B=A46, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K46" s="7" t="str" cm="1">
+        <f t="array" ref="K46">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A46, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L46" s="7" t="str" cm="1">
+        <f t="array" ref="L46">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A46, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M46" s="7" t="str" cm="1">
+        <f t="array" ref="M46">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A46, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N46" s="7" t="str" cm="1">
+        <f t="array" ref="N46">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A46, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
+      <c r="A47" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A47),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2717829</v>
+      </c>
+      <c r="D47" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1</v>
+      </c>
+      <c r="E47" s="7" cm="1">
+        <f t="array" ref="E47">IFERROR(MIN(IF(Avisos!B:B=A47, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="7" cm="1">
+        <f t="array" ref="F47">IFERROR(MAX(IF(Avisos!B:B=A47, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A47), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H47" s="7" t="str" cm="1">
+        <f t="array" ref="H47">IFERROR(ROUND(MODE(IF(Avisos!B:B=A47, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I47" s="7" t="str" cm="1">
+        <f t="array" ref="I47">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A47, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J47" s="8" t="str" cm="1">
+        <f t="array" ref="J47">IFERROR(SKEW(IF(Avisos!B:B=A47, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K47" s="7" t="str" cm="1">
+        <f t="array" ref="K47">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A47, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L47" s="7" t="str" cm="1">
+        <f t="array" ref="L47">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A47, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M47" s="7" t="str" cm="1">
+        <f t="array" ref="M47">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A47, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N47" s="7" t="str" cm="1">
+        <f t="array" ref="N47">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A47, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-    </row>
-    <row r="49" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-    </row>
-    <row r="50" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-    </row>
-    <row r="51" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-    </row>
-    <row r="52" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-    </row>
-    <row r="53" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-    </row>
-    <row r="54" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-    </row>
-    <row r="55" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-    </row>
-    <row r="56" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-    </row>
-    <row r="57" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-    </row>
-    <row r="58" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-    </row>
-    <row r="59" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-    </row>
-    <row r="60" spans="5:14" x14ac:dyDescent="0.35">
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-    </row>
-    <row r="61" spans="5:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A48),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2149350</v>
+      </c>
+      <c r="D48" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1</v>
+      </c>
+      <c r="E48" s="7" cm="1">
+        <f t="array" ref="E48">IFERROR(MIN(IF(Avisos!B:B=A48, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="7" cm="1">
+        <f t="array" ref="F48">IFERROR(MAX(IF(Avisos!B:B=A48, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A48), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H48" s="7" t="str" cm="1">
+        <f t="array" ref="H48">IFERROR(ROUND(MODE(IF(Avisos!B:B=A48, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I48" s="7" t="str" cm="1">
+        <f t="array" ref="I48">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A48, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J48" s="8" t="str" cm="1">
+        <f t="array" ref="J48">IFERROR(SKEW(IF(Avisos!B:B=A48, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K48" s="7" t="str" cm="1">
+        <f t="array" ref="K48">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A48, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L48" s="7" t="str" cm="1">
+        <f t="array" ref="L48">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A48, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M48" s="7" t="str" cm="1">
+        <f t="array" ref="M48">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A48, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N48" s="7" t="str" cm="1">
+        <f t="array" ref="N48">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A48, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A49),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3306555</v>
+      </c>
+      <c r="D49" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1</v>
+      </c>
+      <c r="E49" s="7" cm="1">
+        <f t="array" ref="E49">IFERROR(MIN(IF(Avisos!B:B=A49, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="7" cm="1">
+        <f t="array" ref="F49">IFERROR(MAX(IF(Avisos!B:B=A49, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A49), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H49" s="7" t="str" cm="1">
+        <f t="array" ref="H49">IFERROR(ROUND(MODE(IF(Avisos!B:B=A49, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I49" s="7" t="str" cm="1">
+        <f t="array" ref="I49">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A49, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J49" s="8" t="str" cm="1">
+        <f t="array" ref="J49">IFERROR(SKEW(IF(Avisos!B:B=A49, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K49" s="7" t="str" cm="1">
+        <f t="array" ref="K49">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A49, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L49" s="7" t="str" cm="1">
+        <f t="array" ref="L49">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A49, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M49" s="7" t="str" cm="1">
+        <f t="array" ref="M49">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A49, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N49" s="7" t="str" cm="1">
+        <f t="array" ref="N49">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A49, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A50),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3650000</v>
+      </c>
+      <c r="D50" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1</v>
+      </c>
+      <c r="E50" s="7" cm="1">
+        <f t="array" ref="E50">IFERROR(MIN(IF(Avisos!B:B=A50, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="7" cm="1">
+        <f t="array" ref="F50">IFERROR(MAX(IF(Avisos!B:B=A50, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A50), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H50" s="7" t="str" cm="1">
+        <f t="array" ref="H50">IFERROR(ROUND(MODE(IF(Avisos!B:B=A50, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I50" s="7" t="str" cm="1">
+        <f t="array" ref="I50">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A50, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J50" s="8" t="str" cm="1">
+        <f t="array" ref="J50">IFERROR(SKEW(IF(Avisos!B:B=A50, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K50" s="7" t="str" cm="1">
+        <f t="array" ref="K50">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A50, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L50" s="7" t="str" cm="1">
+        <f t="array" ref="L50">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A50, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M50" s="7" t="str" cm="1">
+        <f t="array" ref="M50">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A50, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N50" s="7" t="str" cm="1">
+        <f t="array" ref="N50">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A50, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A51),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5060545</v>
+      </c>
+      <c r="D51" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1</v>
+      </c>
+      <c r="E51" s="7" cm="1">
+        <f t="array" ref="E51">IFERROR(MIN(IF(Avisos!B:B=A51, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="7" cm="1">
+        <f t="array" ref="F51">IFERROR(MAX(IF(Avisos!B:B=A51, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A51), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H51" s="7" t="str" cm="1">
+        <f t="array" ref="H51">IFERROR(ROUND(MODE(IF(Avisos!B:B=A51, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I51" s="7" t="str" cm="1">
+        <f t="array" ref="I51">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A51, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J51" s="8" t="str" cm="1">
+        <f t="array" ref="J51">IFERROR(SKEW(IF(Avisos!B:B=A51, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K51" s="7" t="str" cm="1">
+        <f t="array" ref="K51">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A51, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L51" s="7" t="str" cm="1">
+        <f t="array" ref="L51">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A51, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M51" s="7" t="str" cm="1">
+        <f t="array" ref="M51">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A51, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N51" s="7" t="str" cm="1">
+        <f t="array" ref="N51">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A51, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A52),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2275908</v>
+      </c>
+      <c r="D52" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1</v>
+      </c>
+      <c r="E52" s="7" cm="1">
+        <f t="array" ref="E52">IFERROR(MIN(IF(Avisos!B:B=A52, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="7" cm="1">
+        <f t="array" ref="F52">IFERROR(MAX(IF(Avisos!B:B=A52, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A52), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H52" s="7" t="str" cm="1">
+        <f t="array" ref="H52">IFERROR(ROUND(MODE(IF(Avisos!B:B=A52, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I52" s="7" t="str" cm="1">
+        <f t="array" ref="I52">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A52, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J52" s="8" t="str" cm="1">
+        <f t="array" ref="J52">IFERROR(SKEW(IF(Avisos!B:B=A52, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K52" s="7" t="str" cm="1">
+        <f t="array" ref="K52">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A52, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L52" s="7" t="str" cm="1">
+        <f t="array" ref="L52">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A52, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M52" s="7" t="str" cm="1">
+        <f t="array" ref="M52">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A52, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N52" s="7" t="str" cm="1">
+        <f t="array" ref="N52">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A52, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A53),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3461165</v>
+      </c>
+      <c r="D53" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1</v>
+      </c>
+      <c r="E53" s="7" cm="1">
+        <f t="array" ref="E53">IFERROR(MIN(IF(Avisos!B:B=A53, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="7" cm="1">
+        <f t="array" ref="F53">IFERROR(MAX(IF(Avisos!B:B=A53, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A53), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H53" s="7" t="str" cm="1">
+        <f t="array" ref="H53">IFERROR(ROUND(MODE(IF(Avisos!B:B=A53, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I53" s="7" t="str" cm="1">
+        <f t="array" ref="I53">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A53, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J53" s="8" t="str" cm="1">
+        <f t="array" ref="J53">IFERROR(SKEW(IF(Avisos!B:B=A53, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K53" s="7" t="str" cm="1">
+        <f t="array" ref="K53">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A53, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L53" s="7" t="str" cm="1">
+        <f t="array" ref="L53">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A53, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M53" s="7" t="str" cm="1">
+        <f t="array" ref="M53">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A53, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N53" s="7" t="str" cm="1">
+        <f t="array" ref="N53">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A53, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A54),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <v>3124223</v>
+      </c>
+      <c r="D54" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1</v>
+      </c>
+      <c r="E54" s="7" cm="1">
+        <f t="array" ref="E54">IFERROR(MIN(IF(Avisos!B:B=A54, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="7" cm="1">
+        <f t="array" ref="F54">IFERROR(MAX(IF(Avisos!B:B=A54, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A54), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H54" s="7" t="str" cm="1">
+        <f t="array" ref="H54">IFERROR(ROUND(MODE(IF(Avisos!B:B=A54, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I54" s="7" t="str" cm="1">
+        <f t="array" ref="I54">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A54, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J54" s="8" t="str" cm="1">
+        <f t="array" ref="J54">IFERROR(SKEW(IF(Avisos!B:B=A54, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K54" s="7" t="str" cm="1">
+        <f t="array" ref="K54">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A54, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L54" s="7" t="str" cm="1">
+        <f t="array" ref="L54">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A54, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M54" s="7" t="str" cm="1">
+        <f t="array" ref="M54">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A54, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N54" s="7" t="str" cm="1">
+        <f t="array" ref="N54">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A54, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A55),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3935051</v>
+      </c>
+      <c r="D55" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1</v>
+      </c>
+      <c r="E55" s="7" cm="1">
+        <f t="array" ref="E55">IFERROR(MIN(IF(Avisos!B:B=A55, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="7" cm="1">
+        <f t="array" ref="F55">IFERROR(MAX(IF(Avisos!B:B=A55, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A55), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H55" s="7" t="str" cm="1">
+        <f t="array" ref="H55">IFERROR(ROUND(MODE(IF(Avisos!B:B=A55, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I55" s="7" t="str" cm="1">
+        <f t="array" ref="I55">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A55, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J55" s="8" t="str" cm="1">
+        <f t="array" ref="J55">IFERROR(SKEW(IF(Avisos!B:B=A55, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K55" s="7" t="str" cm="1">
+        <f t="array" ref="K55">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A55, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L55" s="7" t="str" cm="1">
+        <f t="array" ref="L55">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A55, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M55" s="7" t="str" cm="1">
+        <f t="array" ref="M55">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A55, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N55" s="7" t="str" cm="1">
+        <f t="array" ref="N55">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A55, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A56),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>4555681</v>
+      </c>
+      <c r="D56" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1</v>
+      </c>
+      <c r="E56" s="7" cm="1">
+        <f t="array" ref="E56">IFERROR(MIN(IF(Avisos!B:B=A56, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="7" cm="1">
+        <f t="array" ref="F56">IFERROR(MAX(IF(Avisos!B:B=A56, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A56), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H56" s="7" t="str" cm="1">
+        <f t="array" ref="H56">IFERROR(ROUND(MODE(IF(Avisos!B:B=A56, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I56" s="7" t="str" cm="1">
+        <f t="array" ref="I56">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A56, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J56" s="8" t="str" cm="1">
+        <f t="array" ref="J56">IFERROR(SKEW(IF(Avisos!B:B=A56, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K56" s="7" t="str" cm="1">
+        <f t="array" ref="K56">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A56, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L56" s="7" t="str" cm="1">
+        <f t="array" ref="L56">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A56, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M56" s="7" t="str" cm="1">
+        <f t="array" ref="M56">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A56, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N56" s="7" t="str" cm="1">
+        <f t="array" ref="N56">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A56, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A57),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5590907</v>
+      </c>
+      <c r="D57" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1</v>
+      </c>
+      <c r="E57" s="7" cm="1">
+        <f t="array" ref="E57">IFERROR(MIN(IF(Avisos!B:B=A57, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="7" cm="1">
+        <f t="array" ref="F57">IFERROR(MAX(IF(Avisos!B:B=A57, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A57), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H57" s="7" t="str" cm="1">
+        <f t="array" ref="H57">IFERROR(ROUND(MODE(IF(Avisos!B:B=A57, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I57" s="7" t="str" cm="1">
+        <f t="array" ref="I57">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A57, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J57" s="8" t="str" cm="1">
+        <f t="array" ref="J57">IFERROR(SKEW(IF(Avisos!B:B=A57, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K57" s="7" t="str" cm="1">
+        <f t="array" ref="K57">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A57, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L57" s="7" t="str" cm="1">
+        <f t="array" ref="L57">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A57, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M57" s="7" t="str" cm="1">
+        <f t="array" ref="M57">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A57, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N57" s="7" t="str" cm="1">
+        <f t="array" ref="N57">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A57, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A58),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="15">
+        <v>582882</v>
+      </c>
+      <c r="D58" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1</v>
+      </c>
+      <c r="E58" s="7" cm="1">
+        <f t="array" ref="E58">IFERROR(MIN(IF(Avisos!B:B=A58, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="7" cm="1">
+        <f t="array" ref="F58">IFERROR(MAX(IF(Avisos!B:B=A58, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A58), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H58" s="7" t="str" cm="1">
+        <f t="array" ref="H58">IFERROR(ROUND(MODE(IF(Avisos!B:B=A58, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I58" s="7" t="str" cm="1">
+        <f t="array" ref="I58">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A58, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J58" s="8" t="str" cm="1">
+        <f t="array" ref="J58">IFERROR(SKEW(IF(Avisos!B:B=A58, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K58" s="7" t="str" cm="1">
+        <f t="array" ref="K58">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A58, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L58" s="7" t="str" cm="1">
+        <f t="array" ref="L58">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A58, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M58" s="7" t="str" cm="1">
+        <f t="array" ref="M58">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A58, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N58" s="7" t="str" cm="1">
+        <f t="array" ref="N58">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A58, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A59),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2370000</v>
+      </c>
+      <c r="D59" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1</v>
+      </c>
+      <c r="E59" s="7" cm="1">
+        <f t="array" ref="E59">IFERROR(MIN(IF(Avisos!B:B=A59, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="7" cm="1">
+        <f t="array" ref="F59">IFERROR(MAX(IF(Avisos!B:B=A59, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A59), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H59" s="7" t="str" cm="1">
+        <f t="array" ref="H59">IFERROR(ROUND(MODE(IF(Avisos!B:B=A59, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I59" s="7" t="str" cm="1">
+        <f t="array" ref="I59">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A59, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J59" s="8" t="str" cm="1">
+        <f t="array" ref="J59">IFERROR(SKEW(IF(Avisos!B:B=A59, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K59" s="7" t="str" cm="1">
+        <f t="array" ref="K59">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A59, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L59" s="7" t="str" cm="1">
+        <f t="array" ref="L59">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A59, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M59" s="7" t="str" cm="1">
+        <f t="array" ref="M59">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A59, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N59" s="7" t="str" cm="1">
+        <f t="array" ref="N59">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A59, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="6">
+        <f>IFERROR(COUNTIF(Avisos!B:B, "=" &amp; A60),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2900000</v>
+      </c>
+      <c r="D60" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1</v>
+      </c>
+      <c r="E60" s="7" cm="1">
+        <f t="array" ref="E60">IFERROR(MIN(IF(Avisos!B:B=A60, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="7" cm="1">
+        <f t="array" ref="F60">IFERROR(MAX(IF(Avisos!B:B=A60, Avisos!C:C)),"Sin Info")</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="7" t="str">
+        <f>IFERROR(ROUND(AVERAGEIFS(Avisos!C:C, Avisos!B:B, A60), 0), "Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="H60" s="7" t="str" cm="1">
+        <f t="array" ref="H60">IFERROR(ROUND(MODE(IF(Avisos!B:B=A60, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="I60" s="7" t="str" cm="1">
+        <f t="array" ref="I60">IFERROR(ROUND(STDEV(IF(Avisos!B:B=A60, Avisos!C:C)), 0),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="J60" s="8" t="str" cm="1">
+        <f t="array" ref="J60">IFERROR(SKEW(IF(Avisos!B:B=A60, Avisos!C:C)),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="K60" s="7" t="str" cm="1">
+        <f t="array" ref="K60">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A60, Avisos!C:C), 0.25),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="L60" s="7" t="str" cm="1">
+        <f t="array" ref="L60">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A60, Avisos!C:C), 0.5),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="M60" s="7" t="str" cm="1">
+        <f t="array" ref="M60">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A60, Avisos!C:C), 0.75),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+      <c r="N60" s="7" t="str" cm="1">
+        <f t="array" ref="N60">IFERROR(_xlfn.PERCENTILE.INC(IF(Avisos!B:B=A60, Avisos!C:C), 1),"Sin Info")</f>
+        <v>Sin Info</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
@@ -3360,7 +4125,7 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
     </row>
-    <row r="62" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
@@ -3370,14 +4135,14 @@
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
     </row>
-    <row r="63" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H63" s="10"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
     </row>
-    <row r="64" spans="5:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H64" s="10"/>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
@@ -3435,7 +4200,7 @@
       <c r="N72" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:D44">
+  <conditionalFormatting sqref="D5:D60">
     <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Q4"</formula>
     </cfRule>
@@ -3449,7 +4214,7 @@
       <formula>"Q1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J44">
+  <conditionalFormatting sqref="J5:J60">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>

--- a/public/precios_template.xlsx
+++ b/public/precios_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374EC968-3FEA-4CB1-A68B-4234C6793F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F6F7F6-E58D-47C5-A2EE-D32CAADE5DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>Titulo</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>TK-RERACE</t>
+  </si>
+  <si>
+    <t>Plantilla actualizada el 14-2-2025</t>
   </si>
 </sst>
 </file>
@@ -294,7 +297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +324,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -368,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -412,6 +422,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,7 +921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -933,7 +948,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="16" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
